--- a/templates/BM03.xlsx
+++ b/templates/BM03.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
@@ -10,9 +10,9 @@
     <sheet name="BM03" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'BM03'!$A$1:$G$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'BM03'!$A$1:$G$29</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>CÔNG TY DỊCH VỤ CƠ KHÍ HÀNG HẢI</t>
   </si>
@@ -49,51 +49,6 @@
   </si>
   <si>
     <t>Tiêu chí</t>
-  </si>
-  <si>
-    <t>Điểm số (100)</t>
-  </si>
-  <si>
-    <t>Xuất sắc</t>
-  </si>
-  <si>
-    <t>Tốt</t>
-  </si>
-  <si>
-    <t>Hoàn thành</t>
-  </si>
-  <si>
-    <t>Không hoàn thành</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mức độ hoàn thành nhiệm vụ/công việc được giao </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(xem hướng dẫn ở phụ lục 01).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Chấp hành nội quy lao động, quy định an toàn lao động, quy định điều hành của quản lý cấp trên </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(xem hướng dẫn ở phụ lục 03).</t>
-    </r>
   </si>
   <si>
     <t>Tổng điểm</t>
@@ -145,11 +100,80 @@
   <si>
     <t>Phòng/Xưởng:</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mức độ hoàn thành nhiệm vụ/công việc được giao </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(xem hướng dẫn ở phụ lục 01).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chấp hành nội quy lao động, quy định an toàn lao động, quy định điều hành của quản lý cấp trên </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(xem hướng dẫn ở phụ lục 03).</t>
+    </r>
+  </si>
+  <si>
+    <t>Điểm đánh giá I</t>
+  </si>
+  <si>
+    <t>Điểm đánh giá II</t>
+  </si>
+  <si>
+    <t>Tốt 
+(51-60)</t>
+  </si>
+  <si>
+    <t>Xuất sắc
+ (61-70)</t>
+  </si>
+  <si>
+    <t>Hoàn thành (đến 50)</t>
+  </si>
+  <si>
+    <t>Không hoàn thành (0)</t>
+  </si>
+  <si>
+    <t>Điểm đánh giá</t>
+  </si>
+  <si>
+    <t>Chấp hành xuất sắc 
+(26-30)</t>
+  </si>
+  <si>
+    <t>Chấp hành tốt 
+(21-25)</t>
+  </si>
+  <si>
+    <t>Chấp hành 
+(đến 20)</t>
+  </si>
+  <si>
+    <t>Không chấp hành 
+(0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,19 +216,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
@@ -224,6 +235,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -293,11 +317,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -305,60 +377,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,7 +497,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -699,253 +794,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:G17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" activeCellId="1" sqref="D15:G15 D17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="8" customWidth="1"/>
+    <col min="4" max="7" width="12.140625" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="A9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="A10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="11">
+        <f>SUM(D15:G15,D17:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="B19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="B20" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="22" spans="1:7" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
-        <f>SUM(D14:G14)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
-        <f>SUM(D15:G15)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="21">
-        <f>SUM(C14:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B20:G20"/>
+  <mergeCells count="32">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:G6"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RBiểu mẫu 03</oddHeader>
     <oddFooter>&amp;LQuy định đánh giá kết quả công việc CBCNV&amp;RTrang &amp;P/&amp;N</oddFooter>

--- a/templates/BM03.xlsx
+++ b/templates/BM03.xlsx
@@ -369,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,7 +384,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,9 +425,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,9 +439,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -454,6 +447,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,60 +795,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" activeCellId="1" sqref="D15:G15 D17:G17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="8" customWidth="1"/>
-    <col min="4" max="7" width="12.140625" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="4.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="7" customWidth="1"/>
+    <col min="4" max="7" width="12.140625" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -861,81 +860,81 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="22" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="22" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
@@ -950,24 +949,24 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
@@ -982,75 +981,75 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="28" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="11">
+      <c r="C18" s="22"/>
+      <c r="D18" s="10">
         <f>SUM(D15:G15,D17:G17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="22" spans="1:7" ht="35.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="32">
